--- a/Reports/MarketBeatRank/2019/T_INV19_LARGE/AMAT.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_LARGE/AMAT.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/MarketBeatRank/2019/T_INV19_LARGE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{EE5F7A44-26C5-FA4F-8A2D-31D2D235AAFE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowHeight="27280" windowWidth="24920" xWindow="43880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="2019" r:id="rId3" sheetId="1"/>
+    <sheet name="2019" r:id="rId1" sheetId="1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="64">
   <si>
     <t>Mar_10</t>
   </si>
@@ -141,28 +149,121 @@
   </si>
   <si>
     <t>7/17/2018,Lower Price Target,Outperform,$65.00</t>
+  </si>
+  <si>
+    <t>Oppenheimer Funds</t>
+  </si>
+  <si>
+    <t>Guggenheim</t>
+  </si>
+  <si>
+    <t>Apr_21</t>
+  </si>
+  <si>
+    <t>4/19/2019,Upgrades,Sell -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>5/10/2019,Downgrades,Hold -&gt; Sell,</t>
+  </si>
+  <si>
+    <t>May_15</t>
+  </si>
+  <si>
+    <t>Susquehanna Bancshares</t>
+  </si>
+  <si>
+    <t>5/15/2019,Upgrades,Neutral -&gt; Positive,$34.00 -&gt; $60.00</t>
+  </si>
+  <si>
+    <t>Nomura</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>May_19</t>
+  </si>
+  <si>
+    <t>5/19/2019,Reiterates,Buy,$52.00</t>
+  </si>
+  <si>
+    <t>5/17/2019,Raises Target,Buy,$51.00 -&gt; $52.00</t>
+  </si>
+  <si>
+    <t>5/17/2019,Reiterates,Neutral,$45.00</t>
+  </si>
+  <si>
+    <t>5/17/2019,Raises Target,Outperform,$45.00 -&gt; $52.00</t>
+  </si>
+  <si>
+    <t>May_23</t>
+  </si>
+  <si>
+    <t>5/22/2019,Downgrades,Buy -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>May_27</t>
+  </si>
+  <si>
+    <t>Jun_03</t>
+  </si>
+  <si>
+    <t>Jun_09</t>
+  </si>
+  <si>
+    <t>6/7/2019,Initiates,Neutral -&gt; Neutral,$40.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,247 +278,1438 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="164">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.83203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="60.1640625" collapsed="false"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="C11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="C12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="C22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="C23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="C24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="C25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="C26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="C28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/MarketBeatRank/2019/T_INV19_LARGE/AMAT.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_LARGE/AMAT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9197" uniqueCount="86">
   <si>
     <t>Mar_10</t>
   </si>
@@ -212,6 +212,72 @@
   </si>
   <si>
     <t>6/7/2019,Initiates,Neutral -&gt; Neutral,$40.00</t>
+  </si>
+  <si>
+    <t>Jun_16</t>
+  </si>
+  <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>6/20/2019,Reiterates,Outperform -&gt; Outperform,</t>
+  </si>
+  <si>
+    <t>Jun_30</t>
+  </si>
+  <si>
+    <t>Jul_07</t>
+  </si>
+  <si>
+    <t>Jul_17</t>
+  </si>
+  <si>
+    <t>Jul_23</t>
+  </si>
+  <si>
+    <t>7/22/2019,Downgrades,Buy -&gt; Neutral,</t>
+  </si>
+  <si>
+    <t>7/19/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>7/23/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>Aug_04</t>
+  </si>
+  <si>
+    <t>Aug_25</t>
+  </si>
+  <si>
+    <t>8/18/2019,Reiterates,Buy,$52.00</t>
+  </si>
+  <si>
+    <t>8/16/2019,Raises Target,Equal Weight,$40.00 -&gt; $43.00</t>
+  </si>
+  <si>
+    <t>8/16/2019,Lowers Target,Overweight,$56.00 -&gt; $54.00</t>
+  </si>
+  <si>
+    <t>8/12/2019,Set Price Target,Buy,$57.00</t>
+  </si>
+  <si>
+    <t>8/14/2019,Reiterates,Buy,$54.00</t>
+  </si>
+  <si>
+    <t>8/19/2019,Raises Target,Buy,$48.00 -&gt; $54.00</t>
+  </si>
+  <si>
+    <t>8/16/2019,Set Price Target,Buy,$60.00</t>
+  </si>
+  <si>
+    <t>8/16/2019,Set Price Target,Hold,$40.00</t>
+  </si>
+  <si>
+    <t>Sep_08</t>
+  </si>
+  <si>
+    <t>9/7/2019,Upgrades,Hold -&gt; Buy,</t>
   </si>
 </sst>
 </file>
@@ -228,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +331,56 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -278,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="452">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -411,6 +527,294 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -431,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -772,33 +1176,69 @@
     <col min="5" max="5" customWidth="true" width="45.6640625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="45.6640625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="45.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.83203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="60.1640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="26.83203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="60.1640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -810,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>2</v>
@@ -819,15 +1259,42 @@
         <v>2</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="P2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -857,6 +1324,33 @@
         <v>2</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -888,6 +1382,33 @@
       <c r="I4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -902,19 +1423,46 @@
       <c r="D5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="O5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -931,8 +1479,8 @@
       <c r="D6" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>2</v>
+      <c r="E6" s="328" t="s">
+        <v>71</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>2</v>
@@ -944,6 +1492,33 @@
         <v>2</v>
       </c>
       <c r="I6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -954,8 +1529,8 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>2</v>
+      <c r="C7" s="393" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>2</v>
@@ -973,6 +1548,33 @@
         <v>2</v>
       </c>
       <c r="I7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -983,8 +1585,8 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>2</v>
+      <c r="C8" s="394" t="s">
+        <v>78</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>2</v>
@@ -1002,6 +1604,33 @@
         <v>2</v>
       </c>
       <c r="I8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1031,6 +1660,33 @@
         <v>2</v>
       </c>
       <c r="I9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1062,6 +1718,33 @@
       <c r="I10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1076,8 +1759,8 @@
       <c r="D11" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>2</v>
+      <c r="E11" s="333" t="s">
+        <v>72</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>2</v>
@@ -1085,10 +1768,37 @@
       <c r="G11" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1120,6 +1830,33 @@
       <c r="I12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1149,6 +1886,33 @@
       <c r="I13" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1157,8 +1921,8 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>2</v>
+      <c r="C14" s="400" t="s">
+        <v>79</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>2</v>
@@ -1176,6 +1940,33 @@
         <v>2</v>
       </c>
       <c r="I14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1207,6 +1998,33 @@
       <c r="I15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1236,6 +2054,33 @@
       <c r="I16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1263,6 +2108,33 @@
         <v>2</v>
       </c>
       <c r="I17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1274,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>2</v>
@@ -1292,6 +2164,33 @@
         <v>2</v>
       </c>
       <c r="I18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1302,8 +2201,8 @@
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>2</v>
+      <c r="C19" s="405" t="s">
+        <v>81</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>2</v>
@@ -1311,16 +2210,43 @@
       <c r="E19" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="0" t="s">
+      <c r="P19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1341,15 +2267,42 @@
         <v>2</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="0" t="s">
+      <c r="P20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1369,16 +2322,43 @@
       <c r="E21" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="P21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="0" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1386,8 +2366,8 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
+      <c r="B22" s="440" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>2</v>
@@ -1395,19 +2375,46 @@
       <c r="D22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>2</v>
+      <c r="E22" s="344" t="s">
+        <v>73</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="0" t="s">
+      <c r="Q22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1439,6 +2446,33 @@
       <c r="I23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1468,6 +2502,33 @@
       <c r="I24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1497,6 +2558,33 @@
       <c r="I25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1526,6 +2614,33 @@
       <c r="I26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1555,6 +2670,33 @@
       <c r="I27" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1584,6 +2726,33 @@
       <c r="I28" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1611,6 +2780,33 @@
         <v>2</v>
       </c>
       <c r="I29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1639,6 +2835,33 @@
       <c r="H30" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1665,6 +2888,33 @@
       <c r="H31" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1673,8 +2923,8 @@
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>2</v>
+      <c r="C32" s="418" t="s">
+        <v>82</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>2</v>
@@ -1685,7 +2935,34 @@
       <c r="F32" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1694,21 +2971,48 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="419" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="L33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>2</v>
       </c>
     </row>
